--- a/biology/Botanique/Galarina_(pomme)/Galarina_(pomme).xlsx
+++ b/biology/Botanique/Galarina_(pomme)/Galarina_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galarina est un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">INRA, France.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tout comme la Delbardivine, c'est une Gala rendue par hybridation résistante aux races communes de tavelure. Maturité fin septembre début octobre au Québec[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout comme la Delbardivine, c'est une Gala rendue par hybridation résistante aux races communes de tavelure. Maturité fin septembre début octobre au Québec.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar obtenu par croisement naturel : Gala x Florina.
 </t>
@@ -604,7 +622,9 @@
           <t>Maladie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tavelure : gène Vf de résistance aux races communes de tavelure.</t>
         </is>
@@ -634,9 +654,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variété testée notamment au Canada[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variété testée notamment au Canada.
 </t>
         </is>
       </c>
